--- a/data/stocks_2024.xlsx
+++ b/data/stocks_2024.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>item</t>
   </si>
@@ -30,9 +30,6 @@
     <t>stock_level</t>
   </si>
   <si>
-    <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
-  </si>
-  <si>
     <t>Аир корневища 75г</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Фп "ФармаЦветик® Фиточай для кормящих мам" 20х1,5 г</t>
   </si>
   <si>
-    <t>Фп "Фитосбор №1" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
-  </si>
-  <si>
     <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
   </si>
   <si>
@@ -367,17 +361,25 @@
   </si>
   <si>
     <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Дивный вечер" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000;[Red]\-0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -391,7 +393,12 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -411,12 +418,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor auto="1"/>
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -439,11 +446,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="60"/>
+      </left>
+      <right style="thin">
+        <color indexed="60"/>
+      </right>
+      <top style="thin">
+        <color indexed="60"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="60"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -451,21 +474,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_TDSheet" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -771,10 +792,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -796,903 +817,901 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>3000</v>
+        <v>12031</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>7763</v>
+      <c r="B3" s="4">
+        <v>12459</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
-        <v>6183</v>
+      <c r="B4" s="4">
+        <v>14077</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
-        <v>10596</v>
+      <c r="B5" s="4">
+        <v>14194</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <v>12758</v>
+      <c r="B6" s="4">
+        <v>19811</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
-        <v>31680</v>
+      <c r="B7" s="4">
+        <v>24208</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
-        <v>23945</v>
+      <c r="B8" s="4">
+        <v>21526</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
-        <v>20292</v>
+      <c r="B9" s="4">
+        <v>24179</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
-        <v>21848</v>
+      <c r="B10" s="4">
+        <v>21312</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
-        <v>17113</v>
+      <c r="B11" s="4">
+        <v>28311</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
-        <v>19385</v>
+      <c r="B12" s="4">
+        <v>67515</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
-        <v>60645</v>
+      <c r="B13" s="4">
+        <v>29764</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
-        <v>31802</v>
+      <c r="B14" s="4">
+        <v>16956</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
-        <v>15940</v>
+      <c r="B15" s="4">
+        <v>13705</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
-        <v>10005</v>
+      <c r="B16" s="4">
+        <v>26657</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
-        <v>24515</v>
+      <c r="B17" s="4">
+        <v>26727</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5">
-        <v>14276</v>
+      <c r="B18" s="4">
+        <v>70783</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
-        <v>64394</v>
+      <c r="B19" s="4">
+        <v>36162</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
-        <v>21228</v>
+      <c r="B20" s="4">
+        <v>35335</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5">
-        <v>22436</v>
+      <c r="B21" s="4">
+        <v>19270</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5">
-        <v>13067</v>
+      <c r="B22" s="4">
+        <v>29052</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5">
-        <v>21612</v>
+      <c r="B23" s="4">
+        <v>22416</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5">
-        <v>22516</v>
+      <c r="B24" s="4">
+        <v>22153</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5">
-        <v>13711</v>
+      <c r="B25" s="4">
+        <v>13021</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5">
-        <v>9834</v>
+      <c r="B26" s="4">
+        <v>51884</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="5">
-        <v>36701</v>
+      <c r="B27" s="4">
+        <v>14784</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5">
-        <v>15029</v>
+      <c r="B28" s="4">
+        <v>142888</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="5">
-        <v>127547</v>
+      <c r="B29" s="4">
+        <v>4550</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5">
-        <v>2019</v>
+      <c r="B30" s="4">
+        <v>48804</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="5">
-        <v>33009</v>
+      <c r="B31" s="4">
+        <v>12036</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="5">
-        <v>8898</v>
+      <c r="B32" s="4">
+        <v>30688</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="5">
-        <v>9109</v>
+      <c r="B33" s="4">
+        <v>7570</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5">
-        <v>4103</v>
+      <c r="B34" s="4">
+        <v>12771</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5">
-        <v>5421</v>
+      <c r="B35" s="4">
+        <v>36997</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5">
-        <v>19807</v>
+      <c r="B36" s="4">
+        <v>37392</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="5">
-        <v>25078</v>
+      <c r="B37" s="4">
+        <v>26707</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="5">
-        <v>13116</v>
+      <c r="B38" s="4">
+        <v>18451</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>7997</v>
+      <c r="B39" s="4">
+        <v>22342</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="5">
-        <v>15357</v>
+      <c r="B40" s="4">
+        <v>89473</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5">
-        <v>55131</v>
-      </c>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="4">
-        <v>0</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="5">
-        <v>2195</v>
+      <c r="B43" s="4">
+        <v>1160</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="5">
-        <v>1535</v>
+      <c r="B44" s="4">
+        <v>3070</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="5">
-        <v>2915</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4">
-        <v>5000</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="5">
-        <v>4624</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3474</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="5">
-        <v>1792</v>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2718</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1508</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1890</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="5">
-        <v>2824</v>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2484</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="5">
-        <v>2379</v>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2016</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="5">
-        <v>836</v>
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>4248</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="5">
-        <v>2761</v>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>10726</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="5">
-        <v>2740</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>3900</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="5">
-        <v>2275</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2648</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="5">
-        <v>2204</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>12052</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="5">
-        <v>7695</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>73249</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="5">
-        <v>56067</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>15314</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="5">
-        <v>21566</v>
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>28251</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="5">
-        <v>14714</v>
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4970</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="6">
-        <v>4859</v>
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>3140</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="5">
-        <v>3457</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>4970</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="5">
-        <v>5476</v>
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>8696</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="5">
-        <v>6684</v>
+        <v>63</v>
+      </c>
+      <c r="B64" s="4">
+        <v>17569</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="5">
-        <v>-36143</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <v>25305</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="5">
-        <v>16664</v>
+        <v>65</v>
+      </c>
+      <c r="B66" s="4">
+        <v>31285</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="5">
-        <v>26178</v>
+        <v>66</v>
+      </c>
+      <c r="B67" s="4">
+        <v>5065</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="5">
-        <v>3816</v>
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <v>49533</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="5">
-        <v>38868</v>
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>12764</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="5">
-        <v>6347</v>
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>12933</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="5">
-        <v>11800</v>
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>3647</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="5">
-        <v>4672</v>
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
+        <v>57762</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="5">
-        <v>47516</v>
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
+        <v>29142</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="5">
-        <v>25620</v>
+        <v>73</v>
+      </c>
+      <c r="B74" s="4">
+        <v>54660</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="5">
-        <v>41314</v>
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>51287</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="5">
-        <v>41669</v>
+        <v>75</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1163</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="5">
-        <v>1658</v>
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <v>8179</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="5">
-        <v>3399</v>
+        <v>77</v>
+      </c>
+      <c r="B78" s="4">
+        <v>4394</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="5">
-        <v>3474</v>
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
+        <v>32577</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="5">
-        <v>19814</v>
+        <v>79</v>
+      </c>
+      <c r="B80" s="4">
+        <v>47448</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="5">
-        <v>80181</v>
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>35336</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="5">
-        <v>31742</v>
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>837144</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="5">
-        <v>941129</v>
+        <v>82</v>
+      </c>
+      <c r="B83" s="4">
+        <v>33554</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="5">
-        <v>31719</v>
+        <v>83</v>
+      </c>
+      <c r="B84" s="4">
+        <v>154874</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="5">
-        <v>155214</v>
+        <v>84</v>
+      </c>
+      <c r="B85" s="4">
+        <v>453987</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="5">
-        <v>494901</v>
+        <v>85</v>
+      </c>
+      <c r="B86" s="4">
+        <v>19202</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="5">
-        <v>14899</v>
+        <v>86</v>
+      </c>
+      <c r="B87" s="4">
+        <v>16540</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="5">
-        <v>13929</v>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4">
+        <v>63133</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="5">
-        <v>60127</v>
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <v>70208</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="5">
-        <v>62971</v>
+        <v>89</v>
+      </c>
+      <c r="B90" s="4">
+        <v>218656</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="5">
-        <v>143675</v>
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <v>47654</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="5">
-        <v>34201</v>
+        <v>91</v>
+      </c>
+      <c r="B92" s="4">
+        <v>57898</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="5">
-        <v>55831</v>
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <v>36935</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="5">
-        <v>29528</v>
+        <v>93</v>
+      </c>
+      <c r="B94" s="4">
+        <v>123789</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="5">
-        <v>95743</v>
+        <v>94</v>
+      </c>
+      <c r="B95" s="4">
+        <v>27743</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="5">
-        <v>22071</v>
+        <v>95</v>
+      </c>
+      <c r="B96" s="4">
+        <v>24684</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="5">
-        <v>22157</v>
+        <v>96</v>
+      </c>
+      <c r="B97" s="4">
+        <v>5997</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="5">
-        <v>1886</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="5">
-        <v>15734</v>
+        <v>97</v>
+      </c>
+      <c r="B99" s="4">
+        <v>15282</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="4">
-        <v>48000</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="5">
-        <v>17144</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="5">
-        <v>30557</v>
+        <v>99</v>
+      </c>
+      <c r="B102" s="4">
+        <v>24467</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="5">
-        <v>31298</v>
+        <v>100</v>
+      </c>
+      <c r="B103" s="4">
+        <v>38448</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="5">
-        <v>21071</v>
+        <v>101</v>
+      </c>
+      <c r="B104" s="4">
+        <v>30652</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="5">
-        <v>102973</v>
+        <v>102</v>
+      </c>
+      <c r="B105" s="4">
+        <v>23836</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="5">
-        <v>34997</v>
+        <v>103</v>
+      </c>
+      <c r="B106" s="4">
+        <v>85182</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="5">
-        <v>16674</v>
+        <v>104</v>
+      </c>
+      <c r="B107" s="4">
+        <v>35064</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="5">
-        <v>29321</v>
+        <v>105</v>
+      </c>
+      <c r="B108" s="4">
+        <v>29622</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="5">
-        <v>13044</v>
+        <v>106</v>
+      </c>
+      <c r="B109" s="4">
+        <v>32072</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="5">
-        <v>17954</v>
+        <v>107</v>
+      </c>
+      <c r="B110" s="4">
+        <v>15479</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="5">
-        <v>28849</v>
+        <v>108</v>
+      </c>
+      <c r="B111" s="4">
+        <v>23171</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="5">
-        <v>29533</v>
+        <v>109</v>
+      </c>
+      <c r="B112" s="4">
+        <v>33215</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="5">
-        <v>17370</v>
+        <v>110</v>
+      </c>
+      <c r="B113" s="4">
+        <v>27601</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="5">
-        <v>13315</v>
+        <v>111</v>
+      </c>
+      <c r="B114" s="4">
+        <v>36760</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="4">
+        <v>23930</v>
       </c>
     </row>
   </sheetData>

--- a/data/stocks_2024.xlsx
+++ b/data/stocks_2024.xlsx
@@ -30,346 +30,346 @@
     <t>stock_level</t>
   </si>
   <si>
-    <t>Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
-    <t>Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
-  </si>
-  <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
-  </si>
-  <si>
-    <t>Фп "ФармаЦветик® Фиточай для кормящих мам" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Дивный вечер" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г</t>
+    <t>Аир корневища 75г, шт</t>
+  </si>
+  <si>
+    <t>Алтей корни 75г, шт</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги 50г, шт</t>
+  </si>
+  <si>
+    <t>Береза почки 50г, шт</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки 30г, шт</t>
+  </si>
+  <si>
+    <t>Боярышник плоды 75г, шт</t>
+  </si>
+  <si>
+    <t>Брусника листья 50г, шт</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г, шт</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы, шт</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г, шт</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г, шт</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г, шт</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г, шт</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г, шт</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г, шт</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г, шт</t>
+  </si>
+  <si>
+    <t>Лен семена 100г, шт</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г, шт</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г, шт</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г, шт</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г, шт</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г, шт</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г, шт</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г, шт</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г, шт</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г, шт</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г, шт</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г, шт</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г, шт</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г, шт</t>
+  </si>
+  <si>
+    <t>Сб. Фитонефрол (Урологический сбор) 50г, шт</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г, шт</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г, шт</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г, шт</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г, шт</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г, шт</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г, шт</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г, шт</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г, шт</t>
+  </si>
+  <si>
+    <t>Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г, шт</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп "ФармаЦветик® Фиточай для кормящих мам" 20х1,5 г, шт</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20х2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г, шт</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г, шт</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г, шт</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г, шт</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г, шт</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г, шт</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г, шт</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г, шт</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г, шт</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г, шт</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г, шт</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Дивный вечер" (ТМ "Будь здоров!") (БАД)20х2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г, шт</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20х2,0г, шт</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г, шт</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г, шт</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г, шт</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г, шт</t>
+  </si>
+  <si>
+    <t>Череда трава 50г, шт</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г, шт</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г, шт</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г, шт</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г, шт</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г, шт</t>
   </si>
 </sst>
 </file>
@@ -795,7 +795,7 @@
   <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="45" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4">
         <v>5058</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="47" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="4">
         <v>3474</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="48" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4">
         <v>2718</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="49" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4">
         <v>1890</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="50" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4">
         <v>2484</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="51" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="4">
         <v>2016</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="52" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="4">
         <v>4248</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="53" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4">
         <v>10726</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="54" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4">
         <v>3900</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="55" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4">
         <v>2648</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="56" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4">
         <v>12052</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="57" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4">
         <v>73249</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="58" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4">
         <v>15314</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="59" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4">
         <v>28251</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="60" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4">
         <v>4970</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="61" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="4">
         <v>3140</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="62" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4">
         <v>4970</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="63" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4">
         <v>8696</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="64" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4">
         <v>17569</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="65" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4">
         <v>25305</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="66" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4">
         <v>31285</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="67" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4">
         <v>5065</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="68" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4">
         <v>49533</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="69" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4">
         <v>12764</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="70" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4">
         <v>12933</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="71" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4">
         <v>3647</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="72" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4">
         <v>57762</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="73" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4">
         <v>29142</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="74" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4">
         <v>54660</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="75" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4">
         <v>51287</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="76" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4">
         <v>1163</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="77" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4">
         <v>8179</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="78" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4">
         <v>4394</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="79" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4">
         <v>32577</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="80" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4">
         <v>47448</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="81" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4">
         <v>35336</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="82" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4">
         <v>837144</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="83" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4">
         <v>33554</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="84" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4">
         <v>154874</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="85" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="4">
         <v>453987</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="86" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4">
         <v>19202</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="87" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4">
         <v>16540</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="88" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4">
         <v>63133</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="89" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4">
         <v>70208</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="90" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="4">
         <v>218656</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="91" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4">
         <v>47654</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="92" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="4">
         <v>57898</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="93" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="4">
         <v>36935</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="94" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="4">
         <v>123789</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="95" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="4">
         <v>27743</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="96" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="4">
         <v>24684</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="97" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="4">
         <v>5997</v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="98" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" s="4">
         <v>15282</v>
@@ -1592,19 +1592,19 @@
     </row>
     <row r="100" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B102" s="4">
         <v>24467</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="103" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B103" s="4">
         <v>38448</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="104" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B104" s="4">
         <v>30652</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="105" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B105" s="4">
         <v>23836</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="106" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B106" s="4">
         <v>85182</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="107" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B107" s="4">
         <v>35064</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="108" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B108" s="4">
         <v>29622</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="109" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B109" s="4">
         <v>32072</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="110" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B110" s="4">
         <v>15479</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="111" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B111" s="4">
         <v>23171</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="112" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B112" s="4">
         <v>33215</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="113" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B113" s="4">
         <v>27601</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="114" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B114" s="4">
         <v>36760</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="115" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B115" s="4">
         <v>23930</v>
